--- a/ExcelDefinitivos/Gestamp.xlsx
+++ b/ExcelDefinitivos/Gestamp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anton/Documents/Hackathon/ExcelDefinitivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE4F506-4B44-A048-A8EB-4E6F9A3BF288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A575A17-DD94-F44A-818B-A357ECFAB37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{DF2B6435-E690-7D41-86A5-244CFF613D74}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{DF2B6435-E690-7D41-86A5-244CFF613D74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,10 @@
     <sheet name="Energy Efficiency" sheetId="6" r:id="rId4"/>
     <sheet name="Enviornmental Investments" sheetId="7" r:id="rId5"/>
     <sheet name="Consumo Materias Primas" sheetId="8" r:id="rId6"/>
-    <sheet name="Consumo Energético Tipos" sheetId="4" r:id="rId7"/>
-    <sheet name="Otros Indicadores Ambientales" sheetId="2" r:id="rId8"/>
+    <sheet name="Steel Consumption Regions" sheetId="9" r:id="rId7"/>
+    <sheet name="Types Waste" sheetId="10" r:id="rId8"/>
+    <sheet name="Consumo Energético Tipos" sheetId="4" r:id="rId9"/>
+    <sheet name="Otros Indicadores Ambientales" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="145">
   <si>
     <t>KPI Name</t>
   </si>
@@ -418,6 +420,66 @@
   </si>
   <si>
     <t>0.001%</t>
+  </si>
+  <si>
+    <t>Steel consumption per region (Tn)</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>1,485,081</t>
+  </si>
+  <si>
+    <t>1,540,072</t>
+  </si>
+  <si>
+    <t>1,667,939</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>1,112,524</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>3,036,691</t>
+  </si>
+  <si>
+    <t>2,638,632</t>
+  </si>
+  <si>
+    <t>2,824,468</t>
+  </si>
+  <si>
+    <t>Types of waste generated (Tn)</t>
+  </si>
+  <si>
+    <t>Hazardous Waste</t>
+  </si>
+  <si>
+    <t>Non-Hazardous Waste</t>
+  </si>
+  <si>
+    <t>Scrap</t>
+  </si>
+  <si>
+    <t>1,051,236</t>
+  </si>
+  <si>
+    <t>1,044,820</t>
+  </si>
+  <si>
+    <t>1,010,712</t>
   </si>
 </sst>
 </file>
@@ -867,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D0D84C-936F-E74F-8C48-19E07679F869}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1219,12 +1281,88 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E01640-CE6F-E347-BF48-93300CD31CFD}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="4" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C1" s="9">
+        <v>2022</v>
+      </c>
+      <c r="D1" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="8">
+        <v>210</v>
+      </c>
+      <c r="C4" s="8">
+        <v>223</v>
+      </c>
+      <c r="D4" s="8">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BF9E7E-30C6-7447-83B5-EFBB22A0F0AF}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1541,6 +1679,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1609,7 +1748,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1775,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB144C9A-8F14-B94D-A32F-679CDFFE73AB}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1955,6 +2094,193 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2E4118-D002-2F45-B446-25E1DB39B90E}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C1" s="12">
+        <v>2022</v>
+      </c>
+      <c r="D1" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="12">
+        <v>541.56700000000001</v>
+      </c>
+      <c r="D3" s="12">
+        <v>541.74800000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="12">
+        <v>250.73699999999999</v>
+      </c>
+      <c r="C4" s="12">
+        <v>282.541</v>
+      </c>
+      <c r="D4" s="12">
+        <v>321.029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="12">
+        <v>188.34899999999999</v>
+      </c>
+      <c r="C5" s="14">
+        <v>274452</v>
+      </c>
+      <c r="D5" s="12">
+        <v>293.75200000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000282C1-CD9D-F843-9A15-CBF406A3D57C}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="2">
+        <v>23.289000000000001</v>
+      </c>
+      <c r="C2" s="2">
+        <v>24.033999999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>28.395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="2">
+        <v>23.222000000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>26.981999999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>28.094999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="2">
+        <v>998.30899999999997</v>
+      </c>
+      <c r="C4" s="2">
+        <v>959.69600000000003</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8CE357-F0C3-F64A-B401-EC4D9D2044AC}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -2112,80 +2438,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E01640-CE6F-E347-BF48-93300CD31CFD}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="4" width="10.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="9">
-        <v>2021</v>
-      </c>
-      <c r="C1" s="9">
-        <v>2022</v>
-      </c>
-      <c r="D1" s="9">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="8">
-        <v>210</v>
-      </c>
-      <c r="C4" s="8">
-        <v>223</v>
-      </c>
-      <c r="D4" s="8">
-        <v>241</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>